--- a/regions/4/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
+++ b/regions/4/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -506,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="S3" sqref="S3:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -518,7 +518,7 @@
     <col min="2" max="16" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="24.75" customHeight="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
@@ -538,8 +538,10 @@
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
       <c r="Q1" s="19"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -556,7 +558,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:19">
       <c r="A3" s="3"/>
       <c r="B3" s="17">
         <v>2006</v>
@@ -606,8 +608,14 @@
       <c r="Q3" s="18">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" s="18">
+        <v>2021</v>
+      </c>
+      <c r="S3" s="18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -659,8 +667,14 @@
       <c r="Q4" s="8">
         <v>168.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" s="8">
+        <v>291.5</v>
+      </c>
+      <c r="S4" s="8">
+        <v>408.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -712,8 +726,14 @@
       <c r="Q5" s="9">
         <v>177.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" s="9">
+        <v>280.89999999999998</v>
+      </c>
+      <c r="S5" s="9">
+        <v>430.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -765,8 +785,14 @@
       <c r="Q6" s="10">
         <v>5326</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" s="10">
+        <v>5340</v>
+      </c>
+      <c r="S6" s="10">
+        <v>5458.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -818,8 +844,14 @@
       <c r="Q7" s="10">
         <v>4697</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" s="10">
+        <v>5064</v>
+      </c>
+      <c r="S7" s="10">
+        <v>5281.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -871,8 +903,14 @@
       <c r="Q8" s="8">
         <v>790.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" s="8">
+        <v>831.4</v>
+      </c>
+      <c r="S8" s="8">
+        <v>1085.4000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -924,8 +962,14 @@
       <c r="Q9" s="8">
         <v>91.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9" s="8">
+        <v>148.9</v>
+      </c>
+      <c r="S9" s="8">
+        <v>205.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -977,8 +1021,14 @@
       <c r="Q10" s="8">
         <v>45.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" customHeight="1">
+      <c r="R10" s="8">
+        <v>51.4</v>
+      </c>
+      <c r="S10" s="8">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1030,8 +1080,14 @@
       <c r="Q11" s="8">
         <v>85.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11" s="8">
+        <v>132</v>
+      </c>
+      <c r="S11" s="8">
+        <v>224.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1083,8 +1139,14 @@
       <c r="Q12" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" s="8">
+        <v>60.8</v>
+      </c>
+      <c r="S12" s="8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
@@ -1136,8 +1198,14 @@
       <c r="Q13" s="15">
         <v>88.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="30">
+      <c r="R13" s="15">
+        <v>143.5</v>
+      </c>
+      <c r="S13" s="15">
+        <v>198.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="30">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -1189,8 +1257,14 @@
       <c r="Q14" s="16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="4"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1208,7 +1282,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:19">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
@@ -1251,7 +1325,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/regions/4/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
+++ b/regions/4/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
@@ -506,19 +506,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:S14"/>
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="71.140625" customWidth="1"/>
-    <col min="2" max="16" width="10.140625" customWidth="1"/>
+    <col min="2" max="19" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="24.75" customHeight="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
@@ -541,7 +541,7 @@
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -558,7 +558,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="3"/>
       <c r="B3" s="17">
         <v>2006</v>
@@ -614,8 +614,11 @@
       <c r="S3" s="18">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" s="18">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -673,8 +676,11 @@
       <c r="S4" s="8">
         <v>408.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" s="8">
+        <v>455.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -732,8 +738,11 @@
       <c r="S5" s="9">
         <v>430.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" s="9">
+        <v>483.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -791,8 +800,11 @@
       <c r="S6" s="10">
         <v>5458.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" s="10">
+        <v>5833</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -850,8 +862,11 @@
       <c r="S7" s="10">
         <v>5281.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" s="10">
+        <v>5749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -909,8 +924,11 @@
       <c r="S8" s="8">
         <v>1085.4000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" s="8">
+        <v>1408.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -968,8 +986,11 @@
       <c r="S9" s="8">
         <v>205.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" s="8">
+        <v>253.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1027,8 +1048,11 @@
       <c r="S10" s="8">
         <v>70.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="16.5" customHeight="1">
+      <c r="T10" s="8">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="16.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1086,8 +1110,11 @@
       <c r="S11" s="8">
         <v>224.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="8">
+        <v>230.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1145,8 +1172,11 @@
       <c r="S12" s="8">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" s="8">
+        <v>233.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
@@ -1204,8 +1234,11 @@
       <c r="S13" s="15">
         <v>198.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" ht="30">
+      <c r="T13" s="15">
+        <v>260.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="30">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -1263,8 +1296,11 @@
       <c r="S14" s="16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="4"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1282,7 +1318,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
